--- a/Lab4/lab4output.xlsx
+++ b/Lab4/lab4output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>bload_lb</t>
   </si>
@@ -242,6 +242,897 @@
   </si>
   <si>
     <t>dE_error</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
+  </si>
+  <si>
+    <t>bload_lb</t>
+  </si>
+  <si>
+    <t>bRaw</t>
+  </si>
+  <si>
+    <t>bStrain</t>
+  </si>
+  <si>
+    <t>bE_exp_psi</t>
+  </si>
+  <si>
+    <t>bEst_psi</t>
+  </si>
+  <si>
+    <t>bE_error</t>
+  </si>
+  <si>
+    <t>bE_St</t>
+  </si>
+  <si>
+    <t>bVexp</t>
+  </si>
+  <si>
+    <t>bVst</t>
+  </si>
+  <si>
+    <t>bV_error</t>
+  </si>
+  <si>
+    <t>eload_lb</t>
+  </si>
+  <si>
+    <t>eRaw</t>
+  </si>
+  <si>
+    <t>eStrain</t>
+  </si>
+  <si>
+    <t>eE_exp_psi</t>
+  </si>
+  <si>
+    <t>eEst_psi</t>
+  </si>
+  <si>
+    <t>eE_error</t>
+  </si>
+  <si>
+    <t>eE_St</t>
+  </si>
+  <si>
+    <t>eVexp</t>
+  </si>
+  <si>
+    <t>eVst</t>
+  </si>
+  <si>
+    <t>eV_error</t>
+  </si>
+  <si>
+    <t>dload_lb</t>
+  </si>
+  <si>
+    <t>dRaw</t>
+  </si>
+  <si>
+    <t>dStrain</t>
+  </si>
+  <si>
+    <t>dE_exp_psi</t>
+  </si>
+  <si>
+    <t>dEst_psi</t>
+  </si>
+  <si>
+    <t>dE_error</t>
+  </si>
+  <si>
+    <t>dE_St</t>
   </si>
   <si>
     <t>bload_lb</t>
@@ -343,7 +1234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -354,15 +1245,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,85 +1627,85 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>85</v>
+        <v>382</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>89</v>
+        <v>386</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>94</v>
+        <v>391</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>95</v>
+        <v>392</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>96</v>
+        <v>393</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>97</v>
+        <v>394</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
